--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\1ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D33BE8-6ACD-42C5-BF09-0475BCB41D31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE02C29-75B8-427A-9EC6-D706FE9B5BB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3615" windowWidth="14400" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="2568" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -555,18 +555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="BI3" sqref="AY3:BI3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3:AV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="39" width="3" style="1"/>
-    <col min="40" max="61" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="61" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="AU1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AW1" s="10" t="s">
@@ -779,7 +779,7 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="AS2" s="12"/>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AW2" s="9"/>
@@ -886,7 +886,7 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -994,19 +994,19 @@
       </c>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
-      <c r="AR3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AR3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AW3" s="9"/>
@@ -1073,7 +1073,7 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="AS4" s="12"/>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
-      <c r="AV4" s="10" t="s">
+      <c r="AV4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AW4" s="9"/>
@@ -1192,7 +1192,7 @@
       <c r="CD4" s="12"/>
       <c r="CE4" s="12"/>
     </row>
-    <row r="5" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1302,37 +1302,37 @@
       </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="10"/>
-      <c r="AV5" s="10" t="s">
+      <c r="AV5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AW5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF5" s="10" t="s">
+      <c r="AW5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="BG5" s="9"/>
@@ -1391,7 +1391,7 @@
       <c r="CD5" s="12"/>
       <c r="CE5" s="12"/>
     </row>
-    <row r="6" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="CD6" s="12"/>
       <c r="CE6" s="12"/>
     </row>
-    <row r="7" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="CD7" s="12"/>
       <c r="CE7" s="12"/>
     </row>
-    <row r="8" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="CD8" s="12"/>
       <c r="CE8" s="12"/>
     </row>
-    <row r="9" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="CD9" s="12"/>
       <c r="CE9" s="12"/>
     </row>
-    <row r="10" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="CD10" s="12"/>
       <c r="CE10" s="12"/>
     </row>
-    <row r="11" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="CD11" s="12"/>
       <c r="CE11" s="12"/>
     </row>
-    <row r="12" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="CD12" s="12"/>
       <c r="CE12" s="12"/>
     </row>
-    <row r="13" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="CD13" s="12"/>
       <c r="CE13" s="12"/>
     </row>
-    <row r="14" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="CD14" s="12"/>
       <c r="CE14" s="12"/>
     </row>
-    <row r="15" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="CD15" s="12"/>
       <c r="CE15" s="12"/>
     </row>
-    <row r="16" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="CD16" s="12"/>
       <c r="CE16" s="12"/>
     </row>
-    <row r="17" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="CD17" s="12"/>
       <c r="CE17" s="12"/>
     </row>
-    <row r="18" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
     </row>
-    <row r="19" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="CD19" s="12"/>
       <c r="CE19" s="12"/>
     </row>
-    <row r="20" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="CD20" s="12"/>
       <c r="CE20" s="12"/>
     </row>
-    <row r="21" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="CD21" s="12"/>
       <c r="CE21" s="12"/>
     </row>
-    <row r="22" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="CD22" s="12"/>
       <c r="CE22" s="12"/>
     </row>
-    <row r="23" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3953,7 +3953,7 @@
       <c r="CD23" s="12"/>
       <c r="CE23" s="12"/>
     </row>
-    <row r="24" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -4038,28 +4038,28 @@
       <c r="CD24" s="12"/>
       <c r="CE24" s="12"/>
     </row>
-    <row r="26" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="28" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4068,15 +4068,15 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AE32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AE33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>

--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\1ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE02C29-75B8-427A-9EC6-D706FE9B5BB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09D948-5394-40D3-B03B-37540AE5997E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="2568" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3615" windowWidth="14400" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -555,18 +555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3:AV3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="39" width="3" style="1"/>
-    <col min="40" max="61" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="61" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="CD4" s="12"/>
       <c r="CE4" s="12"/>
     </row>
-    <row r="5" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="CD5" s="12"/>
       <c r="CE5" s="12"/>
     </row>
-    <row r="6" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="CD6" s="12"/>
       <c r="CE6" s="12"/>
     </row>
-    <row r="7" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="CD7" s="12"/>
       <c r="CE7" s="12"/>
     </row>
-    <row r="8" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="CD8" s="12"/>
       <c r="CE8" s="12"/>
     </row>
-    <row r="9" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="CD9" s="12"/>
       <c r="CE9" s="12"/>
     </row>
-    <row r="10" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="CD10" s="12"/>
       <c r="CE10" s="12"/>
     </row>
-    <row r="11" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="CD11" s="12"/>
       <c r="CE11" s="12"/>
     </row>
-    <row r="12" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="CD12" s="12"/>
       <c r="CE12" s="12"/>
     </row>
-    <row r="13" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -2445,25 +2445,25 @@
       <c r="AN13" s="12"/>
       <c r="AO13" s="12"/>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="10" t="s">
+      <c r="AQ13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AR13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW13" s="11" t="s">
+      <c r="AR13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AX13" s="12"/>
@@ -2471,16 +2471,16 @@
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
-      <c r="BC13" s="10" t="s">
+      <c r="BC13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BD13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF13" s="10" t="s">
+      <c r="BD13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="BG13" s="9"/>
@@ -2511,7 +2511,7 @@
       <c r="CD13" s="12"/>
       <c r="CE13" s="12"/>
     </row>
-    <row r="14" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2603,10 +2603,10 @@
       </c>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
-      <c r="AP14" s="10" t="s">
+      <c r="AP14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AQ14" s="10" t="s">
+      <c r="AQ14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AR14" s="12"/>
@@ -2614,25 +2614,25 @@
       <c r="AT14" s="10"/>
       <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
-      <c r="AW14" s="10" t="s">
+      <c r="AW14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AX14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC14" s="10" t="s">
+      <c r="AX14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="BD14" s="9"/>
@@ -2666,7 +2666,7 @@
       <c r="CD14" s="12"/>
       <c r="CE14" s="12"/>
     </row>
-    <row r="15" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2718,13 +2718,13 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
-      <c r="AP15" s="10" t="s">
+      <c r="AP15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
       <c r="AS15" s="9"/>
-      <c r="AT15" s="10" t="s">
+      <c r="AT15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AU15" s="9"/>
@@ -2773,7 +2773,7 @@
       <c r="CD15" s="12"/>
       <c r="CE15" s="12"/>
     </row>
-    <row r="16" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2885,46 +2885,46 @@
       <c r="AO16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AP16" s="11" t="s">
+      <c r="AP16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AQ16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT16" s="11" t="s">
+      <c r="AQ16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AU16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC16" s="11" t="s">
+      <c r="AU16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="BD16" s="9"/>
@@ -2962,7 +2962,7 @@
       <c r="CD16" s="12"/>
       <c r="CE16" s="12"/>
     </row>
-    <row r="17" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
       <c r="AS17" s="9"/>
-      <c r="AT17" s="10" t="s">
+      <c r="AT17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AU17" s="9"/>
@@ -3037,7 +3037,7 @@
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
-      <c r="BC17" s="10" t="s">
+      <c r="BC17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BD17" s="9"/>
@@ -3073,7 +3073,7 @@
       <c r="CD17" s="12"/>
       <c r="CE17" s="12"/>
     </row>
-    <row r="18" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3177,26 +3177,26 @@
       </c>
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
-      <c r="AT18" s="10" t="s">
+      <c r="AT18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AU18" s="9"/>
       <c r="AV18" s="10"/>
-      <c r="AW18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ18" s="11" t="s">
+      <c r="AW18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
-      <c r="BC18" s="10" t="s">
+      <c r="BC18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BD18" s="9"/>
@@ -3232,7 +3232,7 @@
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
     </row>
-    <row r="19" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
-      <c r="AT19" s="10" t="s">
+      <c r="AT19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AU19" s="9"/>
@@ -3310,12 +3310,12 @@
       <c r="AY19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AZ19" s="10" t="s">
+      <c r="AZ19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
-      <c r="BC19" s="10" t="s">
+      <c r="BC19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BD19" s="9"/>
@@ -3351,7 +3351,7 @@
       <c r="CD19" s="12"/>
       <c r="CE19" s="12"/>
     </row>
-    <row r="20" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -3451,30 +3451,30 @@
       </c>
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
-      <c r="AT20" s="10" t="s">
+      <c r="AT20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AU20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ20" s="10" t="s">
+      <c r="AU20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="BA20" s="10"/>
       <c r="BB20" s="10"/>
-      <c r="BC20" s="10" t="s">
+      <c r="BC20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BD20" s="9"/>
@@ -3510,7 +3510,7 @@
       <c r="CD20" s="12"/>
       <c r="CE20" s="12"/>
     </row>
-    <row r="21" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="AZ21" s="9"/>
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
-      <c r="BC21" s="10" t="s">
+      <c r="BC21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BD21" s="9"/>
@@ -3617,7 +3617,7 @@
       <c r="CD21" s="12"/>
       <c r="CE21" s="12"/>
     </row>
-    <row r="22" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="BB22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="BC22" s="11" t="s">
+      <c r="BC22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="BD22" s="10" t="s">
@@ -3824,7 +3824,7 @@
       <c r="CD22" s="12"/>
       <c r="CE22" s="12"/>
     </row>
-    <row r="23" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3953,7 +3953,7 @@
       <c r="CD23" s="12"/>
       <c r="CE23" s="12"/>
     </row>
-    <row r="24" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -4038,28 +4038,28 @@
       <c r="CD24" s="12"/>
       <c r="CE24" s="12"/>
     </row>
-    <row r="26" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="28" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4068,15 +4068,15 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>

--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09D948-5394-40D3-B03B-37540AE5997E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6648387-6532-4C8A-AA32-604EA24A1167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="3615" windowWidth="14400" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,12 +556,14 @@
   <dimension ref="A1:CE34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="39" width="3" style="1"/>
+    <col min="1" max="23" width="3" style="1"/>
+    <col min="24" max="38" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3" style="1"/>
     <col min="40" max="61" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="3" style="1"/>
   </cols>
@@ -2867,22 +2869,22 @@
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="10" t="s">
+      <c r="AJ16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO16" s="10" t="s">
+      <c r="AK16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AP16" s="17" t="s">
@@ -3014,7 +3016,7 @@
       <c r="AG17" s="12"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-      <c r="AJ17" s="10" t="s">
+      <c r="AJ17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AK17" s="9"/>
@@ -3130,28 +3132,28 @@
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
+      <c r="AD18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="AK18" s="10" t="s">
@@ -3279,7 +3281,7 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AD19" s="9"/>
@@ -3403,31 +3405,31 @@
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="11" t="s">
+      <c r="Z20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AD20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH20" s="10" t="s">
+      <c r="AD20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AI20" s="9"/>
@@ -3848,21 +3850,51 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="X23" s="12">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>26</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>28</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>32</v>
+      </c>
+      <c r="AF23" s="12">
+        <v>33</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>34</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>35</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>36</v>
+      </c>
+      <c r="AJ23" s="12">
+        <v>37</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>38</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>39</v>
+      </c>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12">
         <v>40</v>

--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\1ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6648387-6532-4C8A-AA32-604EA24A1167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979989E0-AC73-44FC-8793-BA817ACE19F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3615" windowWidth="14400" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7404" yWindow="2208" windowWidth="23052" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -555,20 +555,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP23" sqref="AP23"/>
+    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="23" width="3" style="1"/>
-    <col min="24" max="38" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3" style="1"/>
-    <col min="40" max="61" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="38" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.6640625" style="1" customWidth="1"/>
+    <col min="40" max="61" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="AH1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AJ1" s="10" t="s">
@@ -689,7 +689,7 @@
       <c r="AN1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AP1" s="10" t="s">
@@ -781,7 +781,7 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="10" t="s">
+      <c r="AI2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AJ2" s="11"/>
@@ -830,7 +830,7 @@
       <c r="AL2" s="11"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AO2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AP2" s="12"/>
@@ -888,7 +888,7 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -951,47 +951,47 @@
       <c r="X3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="11" t="s">
+      <c r="Y3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AJ3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
-      <c r="AO3" s="10" t="s">
+      <c r="AO3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AP3" s="9"/>
@@ -1075,7 +1075,7 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11"/>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AG4" s="9"/>
@@ -1128,7 +1128,7 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="10" t="s">
+      <c r="AO4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AP4" s="9"/>
@@ -1194,7 +1194,7 @@
       <c r="CD4" s="12"/>
       <c r="CE4" s="12"/>
     </row>
-    <row r="5" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1261,45 +1261,45 @@
       </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="10"/>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AJ5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AJ5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="12"/>
-      <c r="AO5" s="10" t="s">
+      <c r="AO5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AP5" s="12"/>
       <c r="AQ5" s="12"/>
-      <c r="AR5" s="10" t="s">
+      <c r="AR5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AS5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AT5" s="9"/>
@@ -1393,7 +1393,7 @@
       <c r="CD5" s="12"/>
       <c r="CE5" s="12"/>
     </row>
-    <row r="6" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1428,23 +1428,23 @@
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
-      <c r="AF6" s="10" t="s">
+      <c r="AF6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="10" t="s">
+      <c r="AI6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AJ6" s="9"/>
@@ -1452,12 +1452,12 @@
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
-      <c r="AO6" s="10" t="s">
+      <c r="AO6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
-      <c r="AR6" s="10" t="s">
+      <c r="AR6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AS6" s="12"/>
@@ -1504,7 +1504,7 @@
       <c r="CD6" s="12"/>
       <c r="CE6" s="12"/>
     </row>
-    <row r="7" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1575,42 +1575,42 @@
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="10" t="s">
+      <c r="AI7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
-      <c r="AL7" s="10" t="s">
+      <c r="AL7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AM7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="10" t="s">
+      <c r="AM7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AO7" s="10" t="s">
+      <c r="AO7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
-      <c r="AR7" s="10" t="s">
+      <c r="AR7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AS7" s="12"/>
@@ -1681,7 +1681,7 @@
       <c r="CD7" s="12"/>
       <c r="CE7" s="12"/>
     </row>
-    <row r="8" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1719,39 +1719,39 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="10" t="s">
+      <c r="AD8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AE8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AE8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AH8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AH8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
-      <c r="AL8" s="10" t="s">
+      <c r="AL8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AM8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AM8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AO8" s="11"/>
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
-      <c r="AR8" s="10" t="s">
+      <c r="AR8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AS8" s="12"/>
@@ -1800,7 +1800,7 @@
       <c r="CD8" s="12"/>
       <c r="CE8" s="12"/>
     </row>
-    <row r="9" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="10" t="s">
+      <c r="AA9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AB9" s="9"/>
@@ -1867,7 +1867,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="10" t="s">
+      <c r="AG9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AH9" s="12"/>
@@ -1876,19 +1876,19 @@
       <c r="AK9" s="9"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="9"/>
-      <c r="AN9" s="10" t="s">
+      <c r="AN9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AO9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR9" s="10" t="s">
+      <c r="AO9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AS9" s="12"/>
@@ -1953,7 +1953,7 @@
       <c r="CD9" s="12"/>
       <c r="CE9" s="12"/>
     </row>
-    <row r="10" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2000,38 +2000,38 @@
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="10" t="s">
+      <c r="AA10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AB10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AB10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="10" t="s">
+      <c r="AG10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AH10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AH10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="10" t="s">
+      <c r="AK10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AL10" s="10"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="10" t="s">
+      <c r="AN10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AO10" s="12"/>
@@ -2084,7 +2084,7 @@
       <c r="CD10" s="12"/>
       <c r="CE10" s="12"/>
     </row>
-    <row r="11" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="10" t="s">
+      <c r="AD11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AE11" s="9"/>
@@ -2158,13 +2158,13 @@
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="10" t="s">
+      <c r="AJ11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AK11" s="9"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="10" t="s">
+      <c r="AN11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AO11" s="12"/>
@@ -2245,7 +2245,7 @@
       <c r="CD11" s="12"/>
       <c r="CE11" s="12"/>
     </row>
-    <row r="12" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2305,29 +2305,29 @@
       </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="10" t="s">
+      <c r="AD12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AE12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
-      <c r="AJ12" s="10" t="s">
+      <c r="AJ12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="10" t="s">
+      <c r="AM12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AN12" s="10" t="s">
+      <c r="AN12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AO12" s="12"/>
@@ -2378,7 +2378,7 @@
       <c r="CD12" s="12"/>
       <c r="CE12" s="12"/>
     </row>
-    <row r="13" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -2424,24 +2424,24 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
-      <c r="AD13" s="10" t="s">
+      <c r="AD13" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="10" t="s">
+      <c r="AG13" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
-      <c r="AJ13" s="10" t="s">
+      <c r="AJ13" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AK13" s="12"/>
       <c r="AL13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AM13" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AN13" s="12"/>
@@ -2513,7 +2513,7 @@
       <c r="CD13" s="12"/>
       <c r="CE13" s="12"/>
     </row>
-    <row r="14" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2569,38 +2569,38 @@
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="10" t="s">
+      <c r="Z14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="10" t="s">
+      <c r="AG14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="10" t="s">
+      <c r="AJ14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AK14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="10" t="s">
+      <c r="AK14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AN14" s="9"/>
@@ -2668,7 +2668,7 @@
       <c r="CD14" s="12"/>
       <c r="CE14" s="12"/>
     </row>
-    <row r="15" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="AD15" s="12"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="10" t="s">
+      <c r="AG15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AH15" s="9"/>
@@ -2775,7 +2775,7 @@
       <c r="CD15" s="12"/>
       <c r="CE15" s="12"/>
     </row>
-    <row r="16" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2843,28 +2843,28 @@
       </c>
       <c r="X16" s="12"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="10" t="s">
+      <c r="Z16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG16" s="10" t="s">
+      <c r="AA16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AH16" s="9"/>
@@ -2964,7 +2964,7 @@
       <c r="CD16" s="12"/>
       <c r="CE16" s="12"/>
     </row>
-    <row r="17" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="10" t="s">
+      <c r="Z17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AA17" s="10"/>
@@ -3075,7 +3075,7 @@
       <c r="CD17" s="12"/>
       <c r="CE17" s="12"/>
     </row>
-    <row r="18" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3118,16 +3118,16 @@
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="10" t="s">
+      <c r="W18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="10" t="s">
+      <c r="X18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="16" t="s">
         <v>10</v>
       </c>
       <c r="AA18" s="10"/>
@@ -3156,25 +3156,25 @@
       <c r="AJ18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AK18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
+      <c r="AK18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="AR18" s="9"/>
@@ -3234,7 +3234,7 @@
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
     </row>
-    <row r="19" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
       <c r="AP19" s="9"/>
-      <c r="AQ19" s="10" t="s">
+      <c r="AQ19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AR19" s="9"/>
@@ -3353,7 +3353,7 @@
       <c r="CD19" s="12"/>
       <c r="CE19" s="12"/>
     </row>
-    <row r="20" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -3434,21 +3434,21 @@
       </c>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
-      <c r="AK20" s="10" t="s">
+      <c r="AK20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AL20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN20" s="10" t="s">
+      <c r="AL20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="10" t="s">
+      <c r="AQ20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AR20" s="9"/>
@@ -3512,7 +3512,7 @@
       <c r="CD20" s="12"/>
       <c r="CE20" s="12"/>
     </row>
-    <row r="21" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
-      <c r="AK21" s="10" t="s">
+      <c r="AK21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AL21" s="10"/>
@@ -3619,7 +3619,7 @@
       <c r="CD21" s="12"/>
       <c r="CE21" s="12"/>
     </row>
-    <row r="22" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="AJ22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AK22" s="11" t="s">
+      <c r="AK22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="AL22" s="10" t="s">
@@ -3826,7 +3826,7 @@
       <c r="CD22" s="12"/>
       <c r="CE22" s="12"/>
     </row>
-    <row r="23" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3850,52 +3850,52 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="12">
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12">
         <v>25</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Z23" s="12">
         <v>26</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="AA23" s="12">
         <v>27</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AB23" s="12">
         <v>28</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AC23" s="12">
         <v>29</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AD23" s="12">
         <v>30</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AE23" s="12">
         <v>31</v>
       </c>
-      <c r="AE23" s="12">
+      <c r="AF23" s="12">
         <v>32</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AG23" s="12">
         <v>33</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AH23" s="12">
         <v>34</v>
       </c>
-      <c r="AH23" s="12">
+      <c r="AI23" s="12">
         <v>35</v>
       </c>
-      <c r="AI23" s="12">
+      <c r="AJ23" s="12">
         <v>36</v>
       </c>
-      <c r="AJ23" s="12">
+      <c r="AK23" s="12">
         <v>37</v>
       </c>
-      <c r="AK23" s="12">
+      <c r="AL23" s="12">
         <v>38</v>
       </c>
-      <c r="AL23" s="12">
+      <c r="AM23" s="12">
         <v>39</v>
       </c>
-      <c r="AM23" s="12"/>
       <c r="AN23" s="12">
         <v>40</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="CD23" s="12"/>
       <c r="CE23" s="12"/>
     </row>
-    <row r="24" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -4070,28 +4070,28 @@
       <c r="CD24" s="12"/>
       <c r="CE24" s="12"/>
     </row>
-    <row r="26" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="28" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4100,15 +4100,15 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AE32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AE33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>

--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979989E0-AC73-44FC-8793-BA817ACE19F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4670B-99E3-46FA-82AA-7EC4B721E515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7404" yWindow="2208" windowWidth="23052" windowHeight="12384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -951,7 +963,7 @@
       <c r="X3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="Z3" s="16" t="s">
@@ -1201,7 +1213,7 @@
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -2294,13 +2306,13 @@
       <c r="X12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="10" t="s">
+      <c r="Y12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AB12" s="9"/>
@@ -2472,7 +2484,7 @@
       <c r="AY13" s="10"/>
       <c r="AZ13" s="9"/>
       <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
+      <c r="BB13" s="18"/>
       <c r="BC13" s="16" t="s">
         <v>7</v>
       </c>

--- a/Labyrinthe_withnumber.xlsx
+++ b/Labyrinthe_withnumber.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Desktop\1ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\Desktop\1ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4670B-99E3-46FA-82AA-7EC4B721E515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015675A8-1E9C-47A4-AB58-5C938BADE85B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3615" windowWidth="14400" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -567,20 +567,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC17" sqref="BC17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="23" width="3" style="1"/>
-    <col min="24" max="38" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.6640625" style="1" customWidth="1"/>
-    <col min="40" max="61" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="38" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.7109375" style="1" customWidth="1"/>
+    <col min="40" max="61" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1206,12 +1206,12 @@
       <c r="CD4" s="12"/>
       <c r="CE4" s="12"/>
     </row>
-    <row r="5" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -1405,7 +1405,7 @@
       <c r="CD5" s="12"/>
       <c r="CE5" s="12"/>
     </row>
-    <row r="6" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="CD6" s="12"/>
       <c r="CE6" s="12"/>
     </row>
-    <row r="7" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="CD7" s="12"/>
       <c r="CE7" s="12"/>
     </row>
-    <row r="8" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="CD8" s="12"/>
       <c r="CE8" s="12"/>
     </row>
-    <row r="9" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="CD9" s="12"/>
       <c r="CE9" s="12"/>
     </row>
-    <row r="10" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="CD10" s="12"/>
       <c r="CE10" s="12"/>
     </row>
-    <row r="11" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="CD11" s="12"/>
       <c r="CE11" s="12"/>
     </row>
-    <row r="12" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="CD12" s="12"/>
       <c r="CE12" s="12"/>
     </row>
-    <row r="13" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="CD13" s="12"/>
       <c r="CE13" s="12"/>
     </row>
-    <row r="14" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="CD14" s="12"/>
       <c r="CE14" s="12"/>
     </row>
-    <row r="15" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="CD15" s="12"/>
       <c r="CE15" s="12"/>
     </row>
-    <row r="16" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="CD16" s="12"/>
       <c r="CE16" s="12"/>
     </row>
-    <row r="17" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="CD17" s="12"/>
       <c r="CE17" s="12"/>
     </row>
-    <row r="18" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="CD18" s="12"/>
       <c r="CE18" s="12"/>
     </row>
-    <row r="19" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="CD19" s="12"/>
       <c r="CE19" s="12"/>
     </row>
-    <row r="20" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="CD20" s="12"/>
       <c r="CE20" s="12"/>
     </row>
-    <row r="21" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="CD21" s="12"/>
       <c r="CE21" s="12"/>
     </row>
-    <row r="22" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="CD22" s="12"/>
       <c r="CE22" s="12"/>
     </row>
-    <row r="23" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3997,7 +3997,7 @@
       <c r="CD23" s="12"/>
       <c r="CE23" s="12"/>
     </row>
-    <row r="24" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -4082,28 +4082,28 @@
       <c r="CD24" s="12"/>
       <c r="CE24" s="12"/>
     </row>
-    <row r="26" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="28" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -4112,15 +4112,15 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:83" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:83" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="28:34" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="28:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
